--- a/Data/Processed/Angiosperms/missing_powo_ipni/Lecythidaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Lecythidaceae.xlsx
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) [Heft 105], 4, Fam. 219a: 136. 1939 </t>
+          <t>Pflanzenr. (Engler) [Heft 105], 4, Fam. 219a: 136. 1939</t>
         </is>
       </c>
       <c r="J43" t="b">
